--- a/biology/Histoire de la zoologie et de la botanique/Jun'ichirō_Itani/Jun'ichirō_Itani.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jun'ichirō_Itani/Jun'ichirō_Itani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jun%27ichir%C5%8D_Itani</t>
+          <t>Jun'ichirō_Itani</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jun'ichirō Itani (伊谷 純一郎, Itani Jun'ichirō?) (9 mai 1926 - 19 août 2001) est considéré, avec Kinji Imanishi, comme le fondateur de la primatologie japonaise. C'est un primatologue[1] et anthropologue internationalement reconnu, professeur émérite à l'université de Kyoto. Il meurt des suites d'une pneumonie à 75 ans.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jun'ichirō Itani (伊谷 純一郎, Itani Jun'ichirō?) (9 mai 1926 - 19 août 2001) est considéré, avec Kinji Imanishi, comme le fondateur de la primatologie japonaise. C'est un primatologue et anthropologue internationalement reconnu, professeur émérite à l'université de Kyoto. Il meurt des suites d'une pneumonie à 75 ans.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jun%27ichir%C5%8D_Itani</t>
+          <t>Jun'ichirō_Itani</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Duane Quiatt et Jun'ichirō Itani (Hrsg.): Hominid culture in primate perspective. 1994
 Jane Goodall, Jun'ichirō, William C. McGrew et Linda F. Marchant : Great Ape Societies. Cambridge University Press, 1996</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jun%27ichir%C5%8D_Itani</t>
+          <t>Jun'ichirō_Itani</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Junichiro Itani » (voir la liste des auteurs).</t>
         </is>
